--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/WASHINGTON_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/WASHINGTON_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1478"/>
+  <dimension ref="A1:D1472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -594,7 +594,7 @@
         <v>133</v>
       </c>
       <c r="D17">
-        <v>0.009497964721845319</v>
+        <v>0.009497964721845321</v>
       </c>
     </row>
     <row r="18">
@@ -651,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="D21">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="22">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C33">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C36">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C42">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C45">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C71">
@@ -1634,7 +1634,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C96">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C98">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C108">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C109">
@@ -2029,7 +2029,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C126">
@@ -2203,7 +2203,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C139">
@@ -2229,7 +2229,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2286,7 +2286,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C145">
@@ -2436,7 +2436,7 @@
         <v>14</v>
       </c>
       <c r="D156">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="157">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C160">
@@ -2629,7 +2629,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C171">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C179">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C180">
@@ -2863,13 +2863,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C189">
@@ -2895,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C191">
@@ -2908,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C192">
@@ -2960,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C196">
@@ -3051,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C203">
@@ -3103,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C207">
@@ -3168,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C212">
@@ -3233,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C217">
@@ -3246,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C218">
@@ -3389,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C229">
@@ -3493,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C237">
@@ -3636,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C248">
@@ -3766,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C258">
@@ -3844,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C264">
@@ -3857,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C265">
@@ -3870,7 +3869,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C266">
@@ -4005,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C276">
@@ -4018,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C277">
@@ -4122,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C285">
@@ -4174,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C289">
@@ -4252,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C295">
@@ -4298,7 +4297,7 @@
         <v>14</v>
       </c>
       <c r="D298">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="299">
@@ -4317,7 +4316,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C300">
@@ -4343,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C302">
@@ -4356,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C303">
@@ -4369,7 +4368,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C304">
@@ -4434,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C309">
@@ -4517,7 +4516,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C315">
@@ -4543,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C317">
@@ -4556,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C318">
@@ -4608,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C322">
@@ -4628,13 +4627,13 @@
         <v>14</v>
       </c>
       <c r="D323">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C324">
@@ -4647,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C325">
@@ -4686,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C328">
@@ -4699,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C329">
@@ -4712,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C330">
@@ -4725,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C331">
@@ -4758,7 +4757,7 @@
         <v>14</v>
       </c>
       <c r="D333">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="334">
@@ -4790,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C336">
@@ -4803,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C337">
@@ -4855,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C341">
@@ -4868,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C342">
@@ -4901,7 +4900,7 @@
         <v>14</v>
       </c>
       <c r="D344">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="345">
@@ -4914,7 +4913,7 @@
         <v>14</v>
       </c>
       <c r="D345">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="346">
@@ -4946,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C348">
@@ -4959,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C349">
@@ -4985,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C351">
@@ -5024,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C354">
@@ -5063,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C357">
@@ -5232,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C370">
@@ -5258,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C372">
@@ -5284,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C374">
@@ -5310,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C376">
@@ -5362,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C380">
@@ -5375,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C381">
@@ -5562,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C395">
@@ -5627,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C400">
@@ -5692,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C405">
@@ -5731,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C408">
@@ -5764,13 +5763,13 @@
         <v>14</v>
       </c>
       <c r="D410">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C411">
@@ -5848,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C417">
@@ -5861,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C418">
@@ -5874,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C419">
@@ -5887,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C420">
@@ -5900,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C421">
@@ -5913,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C422">
@@ -5926,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C423">
@@ -5946,7 +5945,7 @@
         <v>14</v>
       </c>
       <c r="D424">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="425">
@@ -5991,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C428">
@@ -6004,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C429">
@@ -6043,7 +6042,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C432">
@@ -6069,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C434">
@@ -6082,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C435">
@@ -6121,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C438">
@@ -6160,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C441">
@@ -6173,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C442">
@@ -6186,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C443">
@@ -6256,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C448">
@@ -6269,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C449">
@@ -6321,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C453">
@@ -6360,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C456">
@@ -6386,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C458">
@@ -6464,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C464">
@@ -6542,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C470">
@@ -6555,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C471">
@@ -6659,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C479">
@@ -6724,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C484">
@@ -6737,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C485">
@@ -6750,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C486">
@@ -6802,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C490">
@@ -6880,14 +6879,14 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C496">
         <v>14</v>
       </c>
       <c r="D496">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="497">
@@ -6958,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C502">
@@ -7023,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C507">
@@ -7049,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C509">
@@ -7062,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C510">
@@ -7088,7 +7087,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C512">
@@ -7114,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C514">
@@ -7127,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C515">
@@ -7166,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C518">
@@ -7179,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C519">
@@ -7244,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C524">
@@ -7257,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C525">
@@ -7296,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C528">
@@ -7309,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C529">
@@ -7465,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C541">
@@ -7478,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C542">
@@ -7491,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C543">
@@ -7504,7 +7503,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C544">
@@ -7524,7 +7523,7 @@
         <v>14</v>
       </c>
       <c r="D545">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="546">
@@ -7556,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C548">
@@ -7569,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C549">
@@ -7608,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C552">
@@ -7621,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C553">
@@ -7634,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C554">
@@ -7951,7 +7950,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C578">
@@ -7977,7 +7976,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C580">
@@ -8062,7 +8061,7 @@
         <v>14</v>
       </c>
       <c r="D586">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="587">
@@ -8738,7 +8737,7 @@
         <v>14</v>
       </c>
       <c r="D638">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="639">
@@ -8783,7 +8782,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C642">
@@ -9024,7 +9023,7 @@
         <v>14</v>
       </c>
       <c r="D660">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="661">
@@ -9113,7 +9112,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C667">
@@ -9243,7 +9242,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C677">
@@ -9295,7 +9294,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C681">
@@ -9308,7 +9307,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C682">
@@ -9443,7 +9442,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C692">
@@ -9495,7 +9494,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C696">
@@ -9586,7 +9585,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C703">
@@ -9786,7 +9785,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C718">
@@ -9830,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C721">
@@ -9882,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C725">
@@ -9934,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C729">
@@ -9960,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C731">
@@ -9999,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C734">
@@ -10025,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C736">
@@ -10038,7 +10037,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C737">
@@ -10051,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C738">
@@ -10064,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C739">
@@ -10077,20 +10076,20 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C740">
         <v>130</v>
       </c>
       <c r="D740">
-        <v>0.009283724916089409</v>
+        <v>0.009283724916089408</v>
       </c>
     </row>
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C741">
@@ -10103,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C742">
@@ -10129,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C744">
@@ -10142,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C745">
@@ -10259,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C754">
@@ -10272,14 +10271,14 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C755">
         <v>14</v>
       </c>
       <c r="D755">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="756">
@@ -10311,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C758">
@@ -10324,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C759">
@@ -10350,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C761">
@@ -10376,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C763">
@@ -10389,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C764">
@@ -10402,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C765">
@@ -10415,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C766">
@@ -10545,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C776">
@@ -10623,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C782">
@@ -10727,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C790">
@@ -10747,7 +10746,7 @@
         <v>14</v>
       </c>
       <c r="D791">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="792">
@@ -10974,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C809">
@@ -10987,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C810">
@@ -11104,7 +11103,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C819">
@@ -11117,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C820">
@@ -11533,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C852">
@@ -11611,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C858">
@@ -11871,7 +11870,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C878">
@@ -12027,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C890">
@@ -12092,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C895">
@@ -12196,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C903">
@@ -12261,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C908">
@@ -12300,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C911">
@@ -12469,7 +12468,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C924">
@@ -13002,7 +13001,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C965">
@@ -13152,7 +13151,7 @@
         <v>14</v>
       </c>
       <c r="D976">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="977">
@@ -13171,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C978">
@@ -13197,7 +13196,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C980">
@@ -13210,7 +13209,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C981">
@@ -13223,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C982">
@@ -13236,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C983">
@@ -13249,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C984">
@@ -13262,7 +13261,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C985">
@@ -13288,7 +13287,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C987">
@@ -13301,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C988">
@@ -13314,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C989">
@@ -13353,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C992">
@@ -13366,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C993">
@@ -13379,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C994">
@@ -13392,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C995">
@@ -13405,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C996">
@@ -13431,7 +13430,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C998">
@@ -13496,7 +13495,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1003">
@@ -13735,7 +13734,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1021">
@@ -13917,7 +13916,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1035">
@@ -13930,7 +13929,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1036">
@@ -14086,7 +14085,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1048">
@@ -14125,7 +14124,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1051">
@@ -14164,7 +14163,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1054">
@@ -14281,7 +14280,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1063">
@@ -14385,7 +14384,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1071">
@@ -14502,7 +14501,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1080">
@@ -14658,7 +14657,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1092">
@@ -14671,7 +14670,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1093">
@@ -14736,7 +14735,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1098">
@@ -14827,7 +14826,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1105">
@@ -14840,7 +14839,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1106">
@@ -14892,7 +14891,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1110">
@@ -14918,7 +14917,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1112">
@@ -14983,7 +14982,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1117">
@@ -15300,7 +15299,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1141">
@@ -15313,7 +15312,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1142">
@@ -15378,7 +15377,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1147">
@@ -15404,7 +15403,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1149">
@@ -15443,7 +15442,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1152">
@@ -15596,7 +15595,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1163">
@@ -15661,7 +15660,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1168">
@@ -15726,7 +15725,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1173">
@@ -15817,7 +15816,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1180">
@@ -15895,7 +15894,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1186">
@@ -15908,7 +15907,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1187">
@@ -15921,7 +15920,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1188">
@@ -15934,7 +15933,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1189">
@@ -16050,7 +16049,7 @@
         <v>14</v>
       </c>
       <c r="D1197">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="1198">
@@ -16399,7 +16398,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1224">
@@ -16908,7 +16907,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1262">
@@ -17012,7 +17011,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1270">
@@ -17277,7 +17276,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1290">
@@ -17537,7 +17536,7 @@
     <row r="1310">
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1310">
@@ -17732,7 +17731,7 @@
     <row r="1325">
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1325">
@@ -17745,7 +17744,7 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1326">
@@ -17784,7 +17783,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1329">
@@ -17797,7 +17796,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1330">
@@ -17888,7 +17887,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1337">
@@ -17940,7 +17939,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1341">
@@ -17992,7 +17991,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1345">
@@ -18031,7 +18030,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1348">
@@ -18148,7 +18147,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1357">
@@ -18174,7 +18173,7 @@
     <row r="1359">
       <c r="B1359" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1359">
@@ -18252,7 +18251,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1365">
@@ -18291,7 +18290,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1368">
@@ -18590,7 +18589,7 @@
     <row r="1391">
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1391">
@@ -18694,7 +18693,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1399">
@@ -18875,7 +18874,7 @@
         <v>14</v>
       </c>
       <c r="D1412">
-        <v>0.0009997857601942441</v>
+        <v>0.0009997857601942439</v>
       </c>
     </row>
     <row r="1413">
@@ -19159,7 +19158,7 @@
     <row r="1434">
       <c r="B1434" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1434">
@@ -19263,7 +19262,7 @@
     <row r="1442">
       <c r="B1442" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1442">
@@ -19315,7 +19314,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1446">
@@ -19380,7 +19379,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1451">
@@ -19393,7 +19392,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1452">
@@ -19406,7 +19405,7 @@
     <row r="1453">
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1453">
@@ -19510,7 +19509,7 @@
     <row r="1461">
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1461">
@@ -19523,7 +19522,7 @@
     <row r="1462">
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1462">
@@ -19536,7 +19535,7 @@
     <row r="1463">
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1463">
@@ -19562,7 +19561,7 @@
     <row r="1465">
       <c r="B1465" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1465">
@@ -19661,41 +19660,6 @@
       </c>
       <c r="D1472">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
